--- a/한국어/test.xlsx
+++ b/한국어/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>한국어</t>
   </si>
@@ -85,18 +85,6 @@
     <t>저번에 뭔가를 찾는다고 차원을 온통 휘젓지 않으셨나요?</t>
   </si>
   <si>
-    <t>온종일 꼬인 것들을 풀어내느라 진땀을 뺐죠.</t>
-  </si>
-  <si>
-    <t>그… 그건….</t>
-  </si>
-  <si>
-    <t>진짜 고생했슙니다!</t>
-  </si>
-  <si>
-    <t>끙….</t>
-  </si>
-  <si>
     <t>어쨌든 우리 포포가 신세를 진 것 같군.</t>
   </si>
   <si>
@@ -136,7 +124,7 @@
     <t>Popo, come here!</t>
   </si>
   <si>
-    <t>Oops! That goblin!</t>
+    <t>Oh! That goblin!</t>
   </si>
   <si>
     <t>Hmm? Do you know this kid?</t>
@@ -145,76 +133,64 @@
     <t>He brought us here!</t>
   </si>
   <si>
-    <t>I've done my best to help you!</t>
-  </si>
-  <si>
-    <t>Didn't you throw a fireball before that?!</t>
-  </si>
-  <si>
-    <t>And I didn't take him away!</t>
-  </si>
-  <si>
-    <t>You've been following me!</t>
-  </si>
-  <si>
-    <t>I didn't follow you, but....</t>
+    <t>I've helped you as much as I can!</t>
+  </si>
+  <si>
+    <t>Didn't you throw a ball of fire first?!</t>
+  </si>
+  <si>
+    <t>And he didn't drag her!</t>
+  </si>
+  <si>
+    <t>You've come your way!</t>
+  </si>
+  <si>
+    <t>I didn't follow you....</t>
   </si>
   <si>
     <t>So who saved you from being beaten up by monsters?!</t>
   </si>
   <si>
-    <t>Ugh... that's... that's....</t>
-  </si>
-  <si>
-    <t>That's why you have to give me what you promised!</t>
-  </si>
-  <si>
-    <t>I never said I'd give it to you!</t>
-  </si>
-  <si>
-    <t>You're taking it off?!</t>
+    <t>Ugh... That... That's....</t>
+  </si>
+  <si>
+    <t>That's why I'm going to give you what you're supposed to!</t>
+  </si>
+  <si>
+    <t>I didn't give it to you!</t>
+  </si>
+  <si>
+    <t>Are you saying you're going to take it off?!</t>
   </si>
   <si>
     <t>Hmm... that's what happened.</t>
   </si>
   <si>
-    <t>He's been flirting with me again, and I've had this accident..</t>
+    <t>You've been fooling around again, and this accident....</t>
   </si>
   <si>
     <t>I'm sorry... I'm sorry..</t>
   </si>
   <si>
-    <t>But it's still weak compared to the accident that H시는nir caused.</t>
-  </si>
-  <si>
-    <t>That's a fight!</t>
-  </si>
-  <si>
-    <t>My... when did I say I had an accident?</t>
-  </si>
-  <si>
-    <t>Didn't you stir up the whole dimension last time to find something?</t>
-  </si>
-  <si>
-    <t>I've been sweating all day trying to get rid of all the twisted things.</t>
-  </si>
-  <si>
-    <t>That... that's...</t>
-  </si>
-  <si>
-    <t>Thank you for your hard work!</t>
-  </si>
-  <si>
-    <t>Goose...</t>
-  </si>
-  <si>
-    <t>Looks like our artillery owe us anyway.</t>
-  </si>
-  <si>
-    <t>I'll find something suitable for you.</t>
-  </si>
-  <si>
-    <t>That's a relief, Mr. Rina.</t>
+    <t>But it's a little too much compared to the accident you're causing.</t>
+  </si>
+  <si>
+    <t>That's right!</t>
+  </si>
+  <si>
+    <t>When did I say I had an accident?</t>
+  </si>
+  <si>
+    <t>Didn't you shake the whole dimension last time looking for something?</t>
+  </si>
+  <si>
+    <t>Anyway, it looks like our artillery is beholden.</t>
+  </si>
+  <si>
+    <t>I'll find something I can give you in moderation.</t>
+  </si>
+  <si>
+    <t>That's a relief, Rina.</t>
   </si>
   <si>
     <t>What a relief!</t>
@@ -223,7 +199,7 @@
     <t>You're supposed to get it, aren't you?</t>
   </si>
   <si>
-    <t>If you don't do this, Lina Wardottir's name will cry!</t>
+    <t>If you take this away, Leena Warddottir's name will cry!</t>
   </si>
   <si>
     <t>What did you say your name was?</t>
@@ -235,13 +211,16 @@
     <t>Lina</t>
   </si>
   <si>
-    <t>What's the full name?</t>
-  </si>
-  <si>
-    <t>It's Lina Wardottir.</t>
-  </si>
-  <si>
-    <t>Lina... if it's Worddottir....</t>
+    <t>What's your full name?</t>
+  </si>
+  <si>
+    <t>It's Rina Wardottir.</t>
+  </si>
+  <si>
+    <t>Rina... Wardottir....</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -599,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -626,7 +605,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -634,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -642,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -650,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -658,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -666,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -674,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -682,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -690,7 +669,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -698,7 +677,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -706,7 +685,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -714,7 +693,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -722,7 +701,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -730,7 +709,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -738,7 +717,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -746,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -754,7 +733,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -762,7 +741,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -770,7 +749,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -778,7 +757,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -786,7 +765,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -794,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -802,7 +781,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -810,7 +789,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -818,7 +797,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -826,7 +805,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -834,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -842,7 +821,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -850,7 +829,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -858,7 +837,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -866,7 +845,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -874,39 +853,111 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
+      <c r="A35">
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
+      <c r="A36">
+        <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
+      <c r="A37">
+        <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
+      <c r="A38">
+        <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
